--- a/assets/docs/presupuesto.xlsx
+++ b/assets/docs/presupuesto.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adan rubalcaba\OneDrive\Escritorio\evento bebidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC489068-1888-47DF-AF9D-E325B7729D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD11F94-B7CD-483F-A10A-53870ACE0D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E57712E-2C3F-4DEC-B36C-3E0101840274}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -420,24 +420,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Pieza requeridas</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>blue curacao</t>
   </si>
   <si>
-    <t>Alcohol</t>
-  </si>
-  <si>
-    <t>Costo</t>
-  </si>
-  <si>
-    <t>Pieza requeridas</t>
-  </si>
-  <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Bacardi</t>
   </si>
   <si>
@@ -447,7 +447,7 @@
     <t>Baileys</t>
   </si>
   <si>
-    <t>jagermeister</t>
+    <t>Jagermeister</t>
   </si>
   <si>
     <t>Beefeater</t>
@@ -471,25 +471,28 @@
     <t>Jumex Toronja</t>
   </si>
   <si>
+    <t>Agua Mineral 1.5Lt</t>
+  </si>
+  <si>
     <t>Agua Quina (Six)</t>
   </si>
   <si>
-    <t>Agua Mineral 1.5Lt</t>
-  </si>
-  <si>
     <t>Sprite 3Lt</t>
   </si>
   <si>
+    <t>MEZCLADORES</t>
+  </si>
+  <si>
     <t>Vaso Old Fashion</t>
   </si>
   <si>
-    <t>vasos high Ball</t>
+    <t>Copas Gin</t>
   </si>
   <si>
     <t>Copas vino</t>
   </si>
   <si>
-    <t>Copas Gin</t>
+    <t>Vasos high Ball</t>
   </si>
   <si>
     <t>Copa Martinera</t>
@@ -498,19 +501,19 @@
     <t>Coñaquera</t>
   </si>
   <si>
+    <t>CRISTALERIA</t>
+  </si>
+  <si>
+    <t>Barra</t>
+  </si>
+  <si>
     <t>FLETE</t>
   </si>
   <si>
     <t>IDA Y VUELTA</t>
   </si>
   <si>
-    <t>CRISTALERIA</t>
-  </si>
-  <si>
-    <t>Barra</t>
-  </si>
-  <si>
-    <t>MEZCLADORES</t>
+    <t>MOBILARIO Y TRANSPORTE</t>
   </si>
   <si>
     <t>Pinchos</t>
@@ -556,9 +559,6 @@
   </si>
   <si>
     <t>Servicos</t>
-  </si>
-  <si>
-    <t>MOBILARIO Y TRANSPORTE</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,7 +609,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -617,7 +618,7 @@
     </font>
     <font>
       <b/>
-      <sz val="26"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -638,6 +639,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="28"/>
     </font>
   </fonts>
   <fills count="8">
@@ -684,7 +697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -692,51 +705,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,7 +1063,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1303,643 +1361,684 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FABCAD-2948-4C3A-B005-EB7F717432C5}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="94" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="174.6" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B2" s="14">
         <v>190</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="7" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" s="11">
+        <f>B2*C2</f>
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="132.6" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="11">
         <v>240</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>4</v>
       </c>
-      <c r="D3" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="7" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E3" s="11">
         <v>960</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" ht="139.9" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="11">
         <v>185</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="6" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" s="11">
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="126" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="11">
         <v>400</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="6" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E5" s="11">
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" ht="108" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="11">
         <v>400</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="6" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" s="11">
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" ht="139.15" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="11">
         <v>480</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>4</v>
       </c>
-      <c r="D7" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="7" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="11">
         <v>1920</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" ht="142.15" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="11">
         <v>480</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="6" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="11">
         <v>1920</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" ht="113.45" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="11">
         <v>450</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="6" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="11">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" ht="101.45" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="11">
         <v>60</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="6" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="11">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" ht="122.45" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="11">
         <v>550</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="6" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="11">
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" ht="103.9" customHeight="1">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="11">
         <v>60</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="10">
         <v>4</v>
       </c>
-      <c r="D12" s="2" t="e" vm="11">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="D12" s="6" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="46.15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="18">
-        <v>10290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+        <v>10410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="142.15" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="11">
         <v>40</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="10">
         <v>6</v>
       </c>
-      <c r="D14" s="2" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="6" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="11">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" ht="127.15" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="11">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="127.9" customHeight="1">
+      <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1">
-        <v>28</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" s="1">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="B16" s="11">
         <v>80</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="10">
         <v>7</v>
       </c>
-      <c r="D16" t="e" vm="14">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="7" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="11">
         <v>560</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" ht="121.15" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="11">
         <v>43</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="10">
         <v>7</v>
       </c>
-      <c r="D17" t="e" vm="15">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E17" s="1">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="D17" s="7" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="46.15">
+      <c r="A18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="18">
         <v>1521</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" ht="116.45" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="9">
         <v>20</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="6">
+        <v>50</v>
+      </c>
+      <c r="D19" s="7" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="139.9" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="11">
+        <v>30</v>
+      </c>
+      <c r="C20" s="10">
+        <v>50</v>
+      </c>
+      <c r="D20" s="6" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="127.9" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="11">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="11">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="129" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="11">
         <v>20</v>
       </c>
-      <c r="C19">
+      <c r="C22" s="10">
         <v>50</v>
       </c>
-      <c r="D19" t="e" vm="16">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D22" s="6" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" s="11">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1">
-        <v>30</v>
-      </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20" s="2" t="e" vm="17">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1">
-        <v>18</v>
-      </c>
-      <c r="C21">
+    <row r="23" spans="1:5" ht="119.45" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="11">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10">
         <v>40</v>
       </c>
-      <c r="D21" s="3" t="e" vm="18">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E21" s="1">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="D23" s="6" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" s="11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="110.45" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="11">
         <v>20</v>
       </c>
-      <c r="C22">
-        <v>50</v>
-      </c>
-      <c r="D22" s="2" t="e" vm="19">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <v>40</v>
-      </c>
-      <c r="D23" s="2" t="e" vm="20">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E23" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1">
-        <v>20</v>
-      </c>
-      <c r="C24">
+      <c r="C24" s="10">
         <v>10</v>
       </c>
-      <c r="D24" t="e" vm="21">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="7" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+    <row r="25" spans="1:5" ht="46.15">
+      <c r="A25" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="18">
         <v>5220</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="131.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:5" ht="131.44999999999999" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" ht="114.6" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="15">
-        <v>5000</v>
-      </c>
-      <c r="C26" s="13">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13" t="e" vm="22">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="11">
         <v>4000</v>
       </c>
-      <c r="D27" s="1" t="e" vm="23">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A28" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="D27" s="8" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" ht="46.15">
+      <c r="A28" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="18">
         <v>9000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1">
+    <row r="29" spans="1:5" ht="123.6" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="11">
         <v>100</v>
       </c>
-      <c r="D29" t="e" vm="24">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="129.6" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="11">
         <v>40</v>
       </c>
-      <c r="D30" t="e" vm="25">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="142.9" customHeight="1">
+      <c r="A31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="11">
         <v>60</v>
       </c>
-      <c r="D31" t="e" vm="26">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="e" vm="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="112.15" customHeight="1">
+      <c r="A32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="11">
         <v>100</v>
       </c>
-      <c r="D32" t="e" vm="27">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="e" vm="27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="112.15" customHeight="1">
+      <c r="A33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="11">
         <v>60</v>
       </c>
-      <c r="D33" s="17" t="e" vm="28">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="105" customHeight="1">
+      <c r="A34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="11">
         <v>50</v>
       </c>
-      <c r="D34" t="e" vm="29">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="e" vm="29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="129" customHeight="1">
+      <c r="A35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="11">
         <v>50</v>
       </c>
-      <c r="D35" s="2" t="e" vm="30">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="C35" s="7"/>
+      <c r="D35" s="6" t="e" vm="30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="114" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="11">
         <v>250</v>
       </c>
-      <c r="D36" s="17" t="e" vm="31">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="1">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="e" vm="31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="90" customHeight="1">
+      <c r="A37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="11">
         <v>250</v>
       </c>
-      <c r="D37" s="3" t="e" vm="32">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="C37" s="7"/>
+      <c r="D37" s="6" t="e" vm="32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="85.9" customHeight="1">
+      <c r="A38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="11">
         <v>200</v>
       </c>
-      <c r="D38" t="e" vm="33">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="e" vm="33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="109.9" customHeight="1">
+      <c r="A39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="11">
         <v>50</v>
       </c>
-      <c r="D39" s="17" t="e" vm="34">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="1">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="e" vm="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="109.15" customHeight="1">
+      <c r="A40" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="11">
         <v>50</v>
       </c>
-      <c r="D40" t="e" vm="35">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="e" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="95.45" customHeight="1">
+      <c r="A41" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="11">
         <v>100</v>
       </c>
-      <c r="D41" s="3" t="e" vm="36">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="C41" s="7"/>
+      <c r="D41" s="6" t="e" vm="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="151.9" customHeight="1">
+      <c r="A42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="11">
         <v>250</v>
       </c>
-      <c r="D42" t="e" vm="37">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="e" vm="37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" ht="46.15">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="18">
         <v>1610</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
+    <row r="44" spans="1:5" ht="46.15">
+      <c r="A44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="18">
         <v>22000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="E45" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="61.2" x14ac:dyDescent="1.1000000000000001">
-      <c r="E46" s="21">
-        <v>49641</v>
+    <row r="45" spans="1:5" ht="33.6">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="61.15">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="23">
+        <v>49761</v>
       </c>
     </row>
   </sheetData>
